--- a/API Test cases.xlsx
+++ b/API Test cases.xlsx
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,15 +198,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -269,9 +260,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,6 +276,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,135 +583,135 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/API Test cases.xlsx
+++ b/API Test cases.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://dummy.restapiexample.com/api/v1/employees/41208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://dummy.restapiexample.com/api/v1/create</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,15 +131,6 @@
     "salary":"1234",
     "age":"25"
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status Code: 200
-Status Line: HTTP/1.1 200 OK
-Content Type: text/html; charset=UTF-8
-Server Type: nginx/1.14.1
-Content Encoding: gzip
-Content Length &lt; 800</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -154,6 +141,18 @@
 Content Encoding: gzip
 Content Length: null
 Success Code is: null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Code: 200
+Status Line: HTTP/1.1 200 OK
+Content Type: application/json
+Server Type: nginx/1.21.6
+Content Encoding: gzip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employee/21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -621,17 +620,17 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -639,13 +638,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
@@ -660,17 +659,17 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -681,17 +680,17 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,13 +701,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>

--- a/API Test cases.xlsx
+++ b/API Test cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Base URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>http://dummy.restapiexample.com/api/v1/create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://dummy.restapiexample.com/api/v1/update/41484</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -153,6 +149,37 @@
   </si>
   <si>
     <t>http://dummy.restapiexample.com/api/v1/employee/21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "data": {
+        "name": "John123",
+        "salary": "123",
+        "age": "23",
+        "id": 8550
+    },
+    "message": "Successfully! Record has been added."
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/update/21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "data": {
+        "id": 21,
+        "employee_name": "Jenette Caldwell",
+        "employee_salary": 345000,
+        "employee_age": 30,
+        "profile_image": ""
+    },
+    "message": "Successfully! Record has been fetched."
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +591,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +601,7 @@
     <col min="3" max="3" width="56.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
     <col min="7" max="7" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,17 +647,17 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -638,20 +665,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -662,14 +691,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -680,17 +711,17 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -701,13 +732,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
